--- a/experiments/roberta/results/five_answer_best_context_concat.xlsx
+++ b/experiments/roberta/results/five_answer_best_context_concat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B19489-4B5D-4609-8B12-093A9E30D6CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA979F6-BBFD-40D4-B779-1820B5E8D315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="D116" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,7 +4102,7 @@
         <v>53.7307017976213</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>

--- a/experiments/roberta/results/five_answer_best_context_concat.xlsx
+++ b/experiments/roberta/results/five_answer_best_context_concat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA979F6-BBFD-40D4-B779-1820B5E8D315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FD8F3-B403-4AC0-BC7A-BA0DB193D13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2234,19 +2234,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D116" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="71.7109375" style="1" customWidth="1"/>
-    <col min="5" max="10" width="24.85546875" customWidth="1"/>
+    <col min="5" max="11" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2271,14 +2271,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2304,13 +2304,17 @@
         <v>7.96180820465087</v>
       </c>
       <c r="I2">
+        <f>SUM(E2:H2)</f>
+        <v>9.8940315246581854</v>
+      </c>
+      <c r="J2">
         <v>0.47807750622353901</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>88.745420465544001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2336,13 +2340,17 @@
         <v>7.0644865036010698</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">SUM(E3:H3)</f>
+        <v>8.8620967864990128</v>
+      </c>
+      <c r="J3">
         <v>0.47991187406371399</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>75.452683555679101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2368,13 +2376,17 @@
         <v>11.372543573379501</v>
       </c>
       <c r="I4">
+        <f t="shared" si="0"/>
+        <v>13.154322862625104</v>
+      </c>
+      <c r="J4">
         <v>0.41655156521797199</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>75.048863381749101</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2400,13 +2412,17 @@
         <v>7.8604230880737296</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9.5804030895233048</v>
+      </c>
+      <c r="J5">
         <v>0.48068558297380498</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>73.8056669762437</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2432,13 +2448,17 @@
         <v>6.9431455135345397</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
+        <v>8.7397675514221067</v>
+      </c>
+      <c r="J6">
         <v>0.48653472459527403</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>77.319213850658102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2464,13 +2484,17 @@
         <v>8.9394907951354892</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
+        <v>10.730719327926618</v>
+      </c>
+      <c r="J7">
         <v>0.44721359549995798</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>78.920975898197099</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,13 +2520,17 @@
         <v>7.0166850090026802</v>
       </c>
       <c r="I8">
+        <f t="shared" si="0"/>
+        <v>8.8170704841613627</v>
+      </c>
+      <c r="J8">
         <v>0.45159661315194299</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>72.693858264324305</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2528,13 +2556,17 @@
         <v>8.2128319740295392</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
+        <v>10.839273452758786</v>
+      </c>
+      <c r="J9">
         <v>0.47203014196948301</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>81.231136177604697</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2560,13 +2592,17 @@
         <v>8.1704812049865705</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9.9173498153686417</v>
+      </c>
+      <c r="J10">
         <v>0.47419353295754502</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>61.096878097094297</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2592,13 +2628,17 @@
         <v>7.6326992511749197</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10.178261756896958</v>
+      </c>
+      <c r="J11">
         <v>0.47874880790901497</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>69.284784730405505</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2624,13 +2664,17 @@
         <v>8.0500547885894704</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
+        <v>10.658302307128894</v>
+      </c>
+      <c r="J12">
         <v>0.48085938484386298</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>74.117751526185899</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2656,13 +2700,17 @@
         <v>7.2691113948822004</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
+        <v>9.8584358692169101</v>
+      </c>
+      <c r="J13">
         <v>0.47287080450158703</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>82.897794022041793</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2688,13 +2736,17 @@
         <v>8.1237273216247505</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
+        <v>9.8984792232513357</v>
+      </c>
+      <c r="J14">
         <v>0.44986106433705197</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>74.374638867247597</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2720,13 +2772,17 @@
         <v>7.5044221878051696</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
+        <v>9.3133816719055051</v>
+      </c>
+      <c r="J15">
         <v>0.47263466420099198</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>65.489815005696798</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -2752,13 +2808,17 @@
         <v>6.4567072391510001</v>
       </c>
       <c r="I16">
+        <f t="shared" si="0"/>
+        <v>9.0468699932098264</v>
+      </c>
+      <c r="J16">
         <v>0.49902817810808597</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>80.381859083806106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2784,13 +2844,17 @@
         <v>6.7708849906921298</v>
       </c>
       <c r="I17">
+        <f t="shared" si="0"/>
+        <v>9.3654549121856512</v>
+      </c>
+      <c r="J17">
         <v>0.48109772909788001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>83.052329837941002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2816,13 +2880,17 @@
         <v>6.8374798297882</v>
       </c>
       <c r="I18">
+        <f t="shared" si="0"/>
+        <v>9.4274570941924924</v>
+      </c>
+      <c r="J18">
         <v>0.49821319358203697</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>74.537745148766604</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2848,13 +2916,17 @@
         <v>10.001318693161</v>
       </c>
       <c r="I19">
+        <f t="shared" si="0"/>
+        <v>11.841475009918195</v>
+      </c>
+      <c r="J19">
         <v>0.43640044297276998</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>68.0721677685017</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2880,13 +2952,17 @@
         <v>10.2194058895111</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
+        <v>12.015317678451524</v>
+      </c>
+      <c r="J20">
         <v>0.48642631264708902</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>71.8760730133653</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2912,13 +2988,17 @@
         <v>8.8185353279113698</v>
       </c>
       <c r="I21">
+        <f t="shared" si="0"/>
+        <v>10.655209302902204</v>
+      </c>
+      <c r="J21">
         <v>0.469960692132536</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>62.281814768233801</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2944,13 +3024,17 @@
         <v>8.4412052631378103</v>
       </c>
       <c r="I22">
+        <f t="shared" si="0"/>
+        <v>10.312119722366317</v>
+      </c>
+      <c r="J22">
         <v>0.48870499650669902</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>83.892578829210606</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -2976,13 +3060,17 @@
         <v>7.1280198097229004</v>
       </c>
       <c r="I23">
+        <f t="shared" si="0"/>
+        <v>9.6937487125396711</v>
+      </c>
+      <c r="J23">
         <v>0.49734174528027603</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>74.426092106675995</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -3008,13 +3096,17 @@
         <v>6.8267126083373997</v>
       </c>
       <c r="I24">
+        <f t="shared" si="0"/>
+        <v>8.6452383995056046</v>
+      </c>
+      <c r="J24">
         <v>0.507550360093868</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>68.349772657162205</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3040,13 +3132,17 @@
         <v>7.0030121803283603</v>
       </c>
       <c r="I25">
+        <f t="shared" si="0"/>
+        <v>9.6004931926727188</v>
+      </c>
+      <c r="J25">
         <v>0.50107105219166903</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>70.0946449814207</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -3072,13 +3168,17 @@
         <v>7.2515091896057102</v>
       </c>
       <c r="I26">
+        <f t="shared" si="0"/>
+        <v>9.0386941432952845</v>
+      </c>
+      <c r="J26">
         <v>0.47897362544357402</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>68.177520920980299</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -3104,13 +3204,17 @@
         <v>6.5018513202667201</v>
       </c>
       <c r="I27">
+        <f t="shared" si="0"/>
+        <v>8.3210244178771937</v>
+      </c>
+      <c r="J27">
         <v>0.49973096573527098</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>65.893432603022404</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -3136,13 +3240,17 @@
         <v>8.4454543590545601</v>
       </c>
       <c r="I28">
+        <f t="shared" si="0"/>
+        <v>10.310451507568349</v>
+      </c>
+      <c r="J28">
         <v>0.453870689510595</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>95.379845543935204</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -3168,13 +3276,17 @@
         <v>8.4829692840576101</v>
       </c>
       <c r="I29">
+        <f t="shared" si="0"/>
+        <v>10.304848909378043</v>
+      </c>
+      <c r="J29">
         <v>0.46734417419320601</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>55.2710298353391</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -3200,13 +3312,17 @@
         <v>8.4243068695068306</v>
       </c>
       <c r="I30">
+        <f t="shared" si="0"/>
+        <v>10.27495408058166</v>
+      </c>
+      <c r="J30">
         <v>0.50175134029617297</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>63.134585192112603</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3232,13 +3348,17 @@
         <v>10.8964118957519</v>
       </c>
       <c r="I31">
+        <f t="shared" si="0"/>
+        <v>12.670046091079652</v>
+      </c>
+      <c r="J31">
         <v>0.451801001804922</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>70.257049041908203</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -3264,13 +3384,17 @@
         <v>7.0548315048217702</v>
       </c>
       <c r="I32">
+        <f t="shared" si="0"/>
+        <v>9.6913518905639489</v>
+      </c>
+      <c r="J32">
         <v>0.49670673631186402</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>65.327337564726804</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
@@ -3296,13 +3420,17 @@
         <v>14.2248373031616</v>
       </c>
       <c r="I33">
+        <f t="shared" si="0"/>
+        <v>15.935762166976899</v>
+      </c>
+      <c r="J33">
         <v>0.42352567907217098</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>93.598595288225297</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -3328,13 +3456,17 @@
         <v>6.7073209285736004</v>
       </c>
       <c r="I34">
+        <f t="shared" si="0"/>
+        <v>8.518485307693469</v>
+      </c>
+      <c r="J34">
         <v>0.49703953833192999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>80.489658542605497</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -3360,13 +3492,17 @@
         <v>7.2670862674713099</v>
       </c>
       <c r="I35">
+        <f t="shared" si="0"/>
+        <v>8.9840271472930855</v>
+      </c>
+      <c r="J35">
         <v>0.47210294680575998</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>59.135591958413599</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
@@ -3392,13 +3528,17 @@
         <v>8.44944071769714</v>
       </c>
       <c r="I36">
+        <f t="shared" si="0"/>
+        <v>11.195730686187735</v>
+      </c>
+      <c r="J36">
         <v>0.45622110203363903</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>83.470630106288198</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -3424,13 +3564,17 @@
         <v>7.5416307449340803</v>
       </c>
       <c r="I37">
+        <f t="shared" si="0"/>
+        <v>9.2589294910430837</v>
+      </c>
+      <c r="J37">
         <v>0.47729172569650002</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>64.332937175363398</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
@@ -3456,13 +3600,17 @@
         <v>8.4879343509674001</v>
       </c>
       <c r="I38">
+        <f t="shared" si="0"/>
+        <v>10.263385057449323</v>
+      </c>
+      <c r="J38">
         <v>0.46611377078281002</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>48.644816431994201</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
@@ -3488,13 +3636,17 @@
         <v>6.4004614353179896</v>
       </c>
       <c r="I39">
+        <f t="shared" si="0"/>
+        <v>8.1804869174957187</v>
+      </c>
+      <c r="J39">
         <v>0.48645985581955697</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>73.502209647454904</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -3520,13 +3672,17 @@
         <v>6.94117832183837</v>
       </c>
       <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8.964844703674304</v>
+      </c>
+      <c r="J40">
         <v>0.48684980391285798</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>63.356755994665001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -3552,13 +3708,17 @@
         <v>7.1337482929229701</v>
       </c>
       <c r="I41">
+        <f t="shared" si="0"/>
+        <v>8.9361684322357089</v>
+      </c>
+      <c r="J41">
         <v>0.46603231795824401</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>67.847097367622695</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>170</v>
       </c>
@@ -3584,13 +3744,17 @@
         <v>10.680317401885899</v>
       </c>
       <c r="I42">
+        <f t="shared" si="0"/>
+        <v>13.24259567260733</v>
+      </c>
+      <c r="J42">
         <v>0.42771536483524902</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>82.602533248161194</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>174</v>
       </c>
@@ -3616,13 +3780,17 @@
         <v>7.1168110370635898</v>
       </c>
       <c r="I43">
+        <f t="shared" si="0"/>
+        <v>8.8754839897155602</v>
+      </c>
+      <c r="J43">
         <v>0.49351914879133801</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>48.037720749690003</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>178</v>
       </c>
@@ -3648,13 +3816,17 @@
         <v>7.8673310279846103</v>
       </c>
       <c r="I44">
+        <f t="shared" si="0"/>
+        <v>9.5915038585662717</v>
+      </c>
+      <c r="J44">
         <v>0.51574954028042097</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>51.117000802634102</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>182</v>
       </c>
@@ -3680,13 +3852,17 @@
         <v>8.5001728534698398</v>
       </c>
       <c r="I45">
+        <f t="shared" si="0"/>
+        <v>10.324931144714336</v>
+      </c>
+      <c r="J45">
         <v>0.443533954552702</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>64.965783866943596</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>186</v>
       </c>
@@ -3712,13 +3888,17 @@
         <v>6.5726974010467503</v>
       </c>
       <c r="I46">
+        <f t="shared" si="0"/>
+        <v>8.3999562263488698</v>
+      </c>
+      <c r="J46">
         <v>0.478721865238107</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>76.640478171134902</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -3744,13 +3924,17 @@
         <v>16.353071212768501</v>
       </c>
       <c r="I47">
+        <f t="shared" si="0"/>
+        <v>18.035646438598572</v>
+      </c>
+      <c r="J47">
         <v>0.38514990968484503</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -3776,13 +3960,17 @@
         <v>6.63694071769714</v>
       </c>
       <c r="I48">
+        <f t="shared" si="0"/>
+        <v>8.6529808044433487</v>
+      </c>
+      <c r="J48">
         <v>0.45640845417449</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>50.062883821727297</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>199</v>
       </c>
@@ -3808,13 +3996,17 @@
         <v>7.4326431751251203</v>
       </c>
       <c r="I49">
+        <f t="shared" si="0"/>
+        <v>9.1848506927490163</v>
+      </c>
+      <c r="J49">
         <v>0.46736998076853797</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>55.577439134013098</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -3840,13 +4032,17 @@
         <v>6.82623267173767</v>
       </c>
       <c r="I50">
+        <f t="shared" si="0"/>
+        <v>8.5897319316863978</v>
+      </c>
+      <c r="J50">
         <v>0.49393827371153698</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>75.793212608168304</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>207</v>
       </c>
@@ -3872,13 +4068,17 @@
         <v>6.8213543891906703</v>
       </c>
       <c r="I51">
+        <f t="shared" si="0"/>
+        <v>8.6850159168243284</v>
+      </c>
+      <c r="J51">
         <v>0.51761178785402595</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>56.615042038791302</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
@@ -3904,13 +4104,17 @@
         <v>10.4398818016052</v>
       </c>
       <c r="I52">
+        <f t="shared" si="0"/>
+        <v>12.292912006378147</v>
+      </c>
+      <c r="J52">
         <v>0.42848222647926798</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>45.440000887924299</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>215</v>
       </c>
@@ -3936,13 +4140,17 @@
         <v>7.3866205215454102</v>
       </c>
       <c r="I53">
+        <f t="shared" si="0"/>
+        <v>9.1929826736450178</v>
+      </c>
+      <c r="J53">
         <v>0.49437480818413998</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>55.548594932785903</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -3968,13 +4176,17 @@
         <v>9.2126622200012207</v>
       </c>
       <c r="I54">
+        <f t="shared" si="0"/>
+        <v>11.02653384208679</v>
+      </c>
+      <c r="J54">
         <v>0.46393369518342298</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>64.218855487462704</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -4000,13 +4212,17 @@
         <v>12.675485372543299</v>
       </c>
       <c r="I55">
+        <f t="shared" si="0"/>
+        <v>14.382584810256921</v>
+      </c>
+      <c r="J55">
         <v>0.44119278154593999</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>73.268910826577596</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
@@ -4032,13 +4248,17 @@
         <v>14.350530385971</v>
       </c>
       <c r="I56">
+        <f t="shared" si="0"/>
+        <v>16.151170253753588</v>
+      </c>
+      <c r="J56">
         <v>0.44762107983653499</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>77.965116913040703</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
@@ -4064,13 +4284,17 @@
         <v>7.9273135662078804</v>
       </c>
       <c r="I57">
+        <f t="shared" si="0"/>
+        <v>9.7374036312103183</v>
+      </c>
+      <c r="J57">
         <v>0.49282453883820798</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>67.451374320086202</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
@@ -4096,13 +4320,17 @@
         <v>6.5187516212463299</v>
       </c>
       <c r="I58">
+        <f t="shared" si="0"/>
+        <v>8.2820150852203263</v>
+      </c>
+      <c r="J58">
         <v>0.48637529086967501</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>53.7307017976213</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -4128,13 +4356,17 @@
         <v>7.7951307296752903</v>
       </c>
       <c r="I59">
+        <f t="shared" si="0"/>
+        <v>9.7392144203185964</v>
+      </c>
+      <c r="J59">
         <v>0.44214314846588099</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>78.047619704139507</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
@@ -4160,13 +4392,17 @@
         <v>7.0700216293334899</v>
       </c>
       <c r="I60">
+        <f t="shared" si="0"/>
+        <v>8.8476161956786967</v>
+      </c>
+      <c r="J60">
         <v>0.43712575603542803</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>89.741860355597694</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
@@ -4192,13 +4428,17 @@
         <v>7.12986135482788</v>
       </c>
       <c r="I61">
+        <f t="shared" si="0"/>
+        <v>8.97285652160644</v>
+      </c>
+      <c r="J61">
         <v>0.45462557457754599</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>85.626557362338104</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>251</v>
       </c>
@@ -4224,13 +4464,17 @@
         <v>13.677832603454499</v>
       </c>
       <c r="I62">
+        <f t="shared" si="0"/>
+        <v>15.441003084182647</v>
+      </c>
+      <c r="J62">
         <v>0.40175445534864801</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>255</v>
       </c>
@@ -4256,13 +4500,17 @@
         <v>9.1138572692871094</v>
       </c>
       <c r="I63">
+        <f t="shared" si="0"/>
+        <v>10.974761009216298</v>
+      </c>
+      <c r="J63">
         <v>0.44579385188592602</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>67.124224852166194</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>259</v>
       </c>
@@ -4288,13 +4536,17 @@
         <v>7.0126485824584899</v>
       </c>
       <c r="I64">
+        <f t="shared" si="0"/>
+        <v>9.1405377388000382</v>
+      </c>
+      <c r="J64">
         <v>0.47840239768267401</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>69.468458470341602</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>263</v>
       </c>
@@ -4320,13 +4572,17 @@
         <v>7.3755133152008003</v>
       </c>
       <c r="I65">
+        <f t="shared" si="0"/>
+        <v>9.2475318908691282</v>
+      </c>
+      <c r="J65">
         <v>0.48118037064161301</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>58.3051945159147</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>267</v>
       </c>
@@ -4352,13 +4608,17 @@
         <v>7.9203534126281703</v>
       </c>
       <c r="I66">
+        <f t="shared" si="0"/>
+        <v>9.7611389160156143</v>
+      </c>
+      <c r="J66">
         <v>0.44407506058847002</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>66.008033053131399</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
@@ -4384,13 +4644,17 @@
         <v>6.6948957443237296</v>
       </c>
       <c r="I67">
+        <f t="shared" ref="I67:I116" si="1">SUM(E67:H67)</f>
+        <v>8.5286378860473597</v>
+      </c>
+      <c r="J67">
         <v>0.476429562267701</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>55.406822578011798</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>275</v>
       </c>
@@ -4416,13 +4680,17 @@
         <v>13.679133653640701</v>
       </c>
       <c r="I68">
+        <f t="shared" si="1"/>
+        <v>15.467579364776562</v>
+      </c>
+      <c r="J68">
         <v>0.40956736513065201</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>279</v>
       </c>
@@ -4448,13 +4716,17 @@
         <v>6.7049038410186697</v>
       </c>
       <c r="I69">
+        <f t="shared" si="1"/>
+        <v>8.3948791027069003</v>
+      </c>
+      <c r="J69">
         <v>0.46317882434188601</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>85.513109104553905</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>283</v>
       </c>
@@ -4480,13 +4752,17 @@
         <v>7.1833360195159903</v>
       </c>
       <c r="I70">
+        <f t="shared" si="1"/>
+        <v>9.6999657154083199</v>
+      </c>
+      <c r="J70">
         <v>0.49430647245672399</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>64.877564336868105</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>287</v>
       </c>
@@ -4512,13 +4788,17 @@
         <v>7.18113040924072</v>
       </c>
       <c r="I71">
+        <f t="shared" si="1"/>
+        <v>8.9991586208343435</v>
+      </c>
+      <c r="J71">
         <v>0.48367000685644301</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>67.090069776954294</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>291</v>
       </c>
@@ -4544,13 +4824,17 @@
         <v>6.5617084503173801</v>
       </c>
       <c r="I72">
+        <f t="shared" si="1"/>
+        <v>8.3379039764404261</v>
+      </c>
+      <c r="J72">
         <v>0.489674250804915</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>72.936758538699806</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>295</v>
       </c>
@@ -4576,13 +4860,17 @@
         <v>8.1165349483489901</v>
       </c>
       <c r="I73">
+        <f t="shared" si="1"/>
+        <v>9.9139199256896795</v>
+      </c>
+      <c r="J73">
         <v>0.33299127712777299</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>99.999999999999901</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>299</v>
       </c>
@@ -4608,13 +4896,17 @@
         <v>8.6789059638976997</v>
       </c>
       <c r="I74">
+        <f t="shared" si="1"/>
+        <v>10.401636362075793</v>
+      </c>
+      <c r="J74">
         <v>0.44966934851924301</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>76.769925399327605</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>303</v>
       </c>
@@ -4640,13 +4932,17 @@
         <v>6.3972964286804199</v>
       </c>
       <c r="I75">
+        <f t="shared" si="1"/>
+        <v>8.426475048065182</v>
+      </c>
+      <c r="J75">
         <v>0.48624389134644103</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>73.202658513409304</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>307</v>
       </c>
@@ -4672,13 +4968,17 @@
         <v>7.6218132972717196</v>
       </c>
       <c r="I76">
+        <f t="shared" si="1"/>
+        <v>9.4600253105163432</v>
+      </c>
+      <c r="J76">
         <v>0.450178709896907</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>77.3613124892901</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>311</v>
       </c>
@@ -4704,13 +5004,17 @@
         <v>7.1238379478454501</v>
       </c>
       <c r="I77">
+        <f t="shared" si="1"/>
+        <v>8.8729953765868963</v>
+      </c>
+      <c r="J77">
         <v>0.48525953448627301</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>65.072058920626603</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>315</v>
       </c>
@@ -4736,13 +5040,17 @@
         <v>6.8795871734619096</v>
       </c>
       <c r="I78">
+        <f t="shared" si="1"/>
+        <v>8.663694381713853</v>
+      </c>
+      <c r="J78">
         <v>0.467360689580605</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>58.212038845078098</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>319</v>
       </c>
@@ -4768,13 +5076,17 @@
         <v>9.0400075912475497</v>
       </c>
       <c r="I79">
+        <f t="shared" si="1"/>
+        <v>11.745862960815412</v>
+      </c>
+      <c r="J79">
         <v>0.46931583618966199</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>77.835884430256002</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="405" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>323</v>
       </c>
@@ -4800,13 +5112,17 @@
         <v>6.4396388530731201</v>
       </c>
       <c r="I80">
+        <f t="shared" si="1"/>
+        <v>8.3660130500793404</v>
+      </c>
+      <c r="J80">
         <v>0.50078431613595797</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>77.6491715441434</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>327</v>
       </c>
@@ -4832,13 +5148,17 @@
         <v>6.4511146545410103</v>
       </c>
       <c r="I81">
+        <f t="shared" si="1"/>
+        <v>8.2056131362914897</v>
+      </c>
+      <c r="J81">
         <v>0.48043914065596399</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>70.834167082150401</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>331</v>
       </c>
@@ -4864,13 +5184,17 @@
         <v>7.6209843158721897</v>
       </c>
       <c r="I82">
+        <f t="shared" si="1"/>
+        <v>9.3832209110259956</v>
+      </c>
+      <c r="J82">
         <v>0.51761178785402595</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>60.707555397162203</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>335</v>
       </c>
@@ -4896,13 +5220,17 @@
         <v>6.8695595264434797</v>
       </c>
       <c r="I83">
+        <f t="shared" si="1"/>
+        <v>8.7088084220886177</v>
+      </c>
+      <c r="J83">
         <v>0.52259325298503601</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>77.835847221166105</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>339</v>
       </c>
@@ -4928,13 +5256,17 @@
         <v>7.2075831890106201</v>
       </c>
       <c r="I84">
+        <f t="shared" si="1"/>
+        <v>9.1294176578521675</v>
+      </c>
+      <c r="J84">
         <v>0.49866201637278501</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>87.667592258609901</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>343</v>
       </c>
@@ -4960,13 +5292,17 @@
         <v>6.5148503780364901</v>
       </c>
       <c r="I85">
+        <f t="shared" si="1"/>
+        <v>8.6393549442291082</v>
+      </c>
+      <c r="J85">
         <v>0.526967595453947</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>78.162082418718498</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>347</v>
       </c>
@@ -4992,13 +5328,17 @@
         <v>6.9555029869079501</v>
       </c>
       <c r="I86">
+        <f t="shared" si="1"/>
+        <v>8.6919312477111657</v>
+      </c>
+      <c r="J86">
         <v>0.52197939509612501</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>59.497134903284397</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>351</v>
       </c>
@@ -5024,13 +5364,17 @@
         <v>7.8628089427947998</v>
       </c>
       <c r="I87">
+        <f t="shared" si="1"/>
+        <v>9.7240934371948224</v>
+      </c>
+      <c r="J87">
         <v>0.47161260052423598</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>66.809863253096907</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>355</v>
       </c>
@@ -5056,13 +5400,17 @@
         <v>7.3185360431671098</v>
       </c>
       <c r="I88">
+        <f t="shared" si="1"/>
+        <v>9.8732199668884171</v>
+      </c>
+      <c r="J88">
         <v>0.468173537125463</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>56.903175697490099</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>359</v>
       </c>
@@ -5088,13 +5436,17 @@
         <v>7.2540321350097603</v>
       </c>
       <c r="I89">
+        <f t="shared" si="1"/>
+        <v>9.7523608207702566</v>
+      </c>
+      <c r="J89">
         <v>0.48802177800917101</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>84.918760313283997</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>363</v>
       </c>
@@ -5120,13 +5472,17 @@
         <v>10.6728067398071</v>
       </c>
       <c r="I90">
+        <f t="shared" si="1"/>
+        <v>12.598253965377772</v>
+      </c>
+      <c r="J90">
         <v>0.49696280746246402</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>82.997005213956001</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>367</v>
       </c>
@@ -5152,13 +5508,17 @@
         <v>8.4943513870239205</v>
       </c>
       <c r="I91">
+        <f t="shared" si="1"/>
+        <v>10.351809263229361</v>
+      </c>
+      <c r="J91">
         <v>0.45740059556179202</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>74.269669569128197</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>371</v>
       </c>
@@ -5184,13 +5544,17 @@
         <v>10.2744348049163</v>
       </c>
       <c r="I92">
+        <f t="shared" si="1"/>
+        <v>12.106405258178622</v>
+      </c>
+      <c r="J92">
         <v>0.43221941262108499</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>87.750863147859306</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>375</v>
       </c>
@@ -5216,13 +5580,17 @@
         <v>14.1647009849548</v>
       </c>
       <c r="I93">
+        <f t="shared" si="1"/>
+        <v>16.054189205169639</v>
+      </c>
+      <c r="J93">
         <v>0.41810267520625399</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>67.805858829465095</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>379</v>
       </c>
@@ -5248,13 +5616,17 @@
         <v>9.4165356159210205</v>
       </c>
       <c r="I94">
+        <f t="shared" si="1"/>
+        <v>11.313149690628043</v>
+      </c>
+      <c r="J94">
         <v>0.433618909034867</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>91.997929245127196</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>383</v>
       </c>
@@ -5280,13 +5652,17 @@
         <v>7.9059948921203604</v>
       </c>
       <c r="I95">
+        <f t="shared" si="1"/>
+        <v>9.7633569240570015</v>
+      </c>
+      <c r="J95">
         <v>0.529536295181678</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>86.522506606012897</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>387</v>
       </c>
@@ -5312,13 +5688,17 @@
         <v>6.3334627151489196</v>
       </c>
       <c r="I96">
+        <f t="shared" si="1"/>
+        <v>8.0734286308288432</v>
+      </c>
+      <c r="J96">
         <v>0.48952700508407698</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>60.775371310329902</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>391</v>
       </c>
@@ -5344,13 +5724,17 @@
         <v>6.8709249496459899</v>
       </c>
       <c r="I97">
+        <f t="shared" si="1"/>
+        <v>8.580606460571282</v>
+      </c>
+      <c r="J97">
         <v>0.51602254039733098</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>78.755324492153605</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>395</v>
       </c>
@@ -5376,13 +5760,17 @@
         <v>6.6956627368927002</v>
       </c>
       <c r="I98">
+        <f t="shared" si="1"/>
+        <v>8.4306671619415283</v>
+      </c>
+      <c r="J98">
         <v>0.50946469338828504</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>72.841858838866301</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>399</v>
       </c>
@@ -5408,13 +5796,17 @@
         <v>6.7089297771453804</v>
       </c>
       <c r="I99">
+        <f t="shared" si="1"/>
+        <v>8.4700090885162282</v>
+      </c>
+      <c r="J99">
         <v>0.52219576781216004</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>91.956777935315102</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>403</v>
       </c>
@@ -5440,13 +5832,17 @@
         <v>13.511892080307</v>
       </c>
       <c r="I100">
+        <f t="shared" si="1"/>
+        <v>15.340066432952872</v>
+      </c>
+      <c r="J100">
         <v>0.52122843590147905</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>77.153930269148603</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>407</v>
       </c>
@@ -5472,13 +5868,17 @@
         <v>7.4235730171203604</v>
       </c>
       <c r="I101">
+        <f t="shared" si="1"/>
+        <v>9.6010239124298042</v>
+      </c>
+      <c r="J101">
         <v>0.48302601515275101</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>63.207942506205796</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -5504,13 +5904,17 @@
         <v>6.6364834308624197</v>
       </c>
       <c r="I102">
+        <f t="shared" si="1"/>
+        <v>9.2139337062835533</v>
+      </c>
+      <c r="J102">
         <v>0.51697315395717003</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>97.502931655325497</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>415</v>
       </c>
@@ -5536,13 +5940,17 @@
         <v>7.2259714603424001</v>
       </c>
       <c r="I103">
+        <f t="shared" si="1"/>
+        <v>8.9585864543914617</v>
+      </c>
+      <c r="J103">
         <v>0.49247906050545198</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>65.880814685449096</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>419</v>
       </c>
@@ -5568,13 +5976,17 @@
         <v>7.3792657852172798</v>
       </c>
       <c r="I104">
+        <f t="shared" si="1"/>
+        <v>10.082646608352652</v>
+      </c>
+      <c r="J104">
         <v>0.50323451148297504</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>89.574518957096601</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>423</v>
       </c>
@@ -5600,13 +6012,17 @@
         <v>6.9250252246856601</v>
       </c>
       <c r="I105">
+        <f t="shared" si="1"/>
+        <v>8.6465020179748411</v>
+      </c>
+      <c r="J105">
         <v>0.50135612853669098</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>93.276150821221705</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>427</v>
       </c>
@@ -5632,13 +6048,17 @@
         <v>8.7630708217620796</v>
       </c>
       <c r="I106">
+        <f t="shared" si="1"/>
+        <v>10.724506616592395</v>
+      </c>
+      <c r="J106">
         <v>0.49451162148302102</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>70.706351110662496</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>431</v>
       </c>
@@ -5664,13 +6084,17 @@
         <v>8.3286960124969394</v>
       </c>
       <c r="I107">
+        <f t="shared" si="1"/>
+        <v>10.876626253128032</v>
+      </c>
+      <c r="J107">
         <v>0.51570760430899798</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>80.292766473790394</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -5696,13 +6120,17 @@
         <v>6.3157243728637598</v>
       </c>
       <c r="I108">
+        <f t="shared" si="1"/>
+        <v>8.8341007232665909</v>
+      </c>
+      <c r="J108">
         <v>0.49247906050545198</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>69.434375273175306</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>439</v>
       </c>
@@ -5728,13 +6156,17 @@
         <v>6.7675390243530202</v>
       </c>
       <c r="I109">
+        <f t="shared" si="1"/>
+        <v>9.4681925773620481</v>
+      </c>
+      <c r="J109">
         <v>0.49043128617617499</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>79.899023463146705</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>443</v>
       </c>
@@ -5760,13 +6192,17 @@
         <v>12.549914836883501</v>
       </c>
       <c r="I110">
+        <f t="shared" si="1"/>
+        <v>15.081914663314764</v>
+      </c>
+      <c r="J110">
         <v>0.47940925447538602</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>81.545141931387306</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>447</v>
       </c>
@@ -5792,13 +6228,17 @@
         <v>7.3639597892761204</v>
       </c>
       <c r="I111">
+        <f t="shared" si="1"/>
+        <v>10.080992698669426</v>
+      </c>
+      <c r="J111">
         <v>0.473344861041197</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>66.041872568918905</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>451</v>
       </c>
@@ -5824,13 +6264,17 @@
         <v>6.8203222751617396</v>
       </c>
       <c r="I112">
+        <f t="shared" si="1"/>
+        <v>8.7347378730773855</v>
+      </c>
+      <c r="J112">
         <v>0.50084057455577902</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>90.315232824565101</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>455</v>
       </c>
@@ -5856,13 +6300,17 @@
         <v>7.6170353889465297</v>
       </c>
       <c r="I113">
+        <f t="shared" si="1"/>
+        <v>9.4137008190154976</v>
+      </c>
+      <c r="J113">
         <v>0.55083542304176403</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>84.156428880366306</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>459</v>
       </c>
@@ -5888,13 +6336,17 @@
         <v>7.3103077411651602</v>
       </c>
       <c r="I114">
+        <f t="shared" si="1"/>
+        <v>9.0674440860748202</v>
+      </c>
+      <c r="J114">
         <v>0.50565397791099298</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>91.775548300551606</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>463</v>
       </c>
@@ -5920,13 +6372,17 @@
         <v>6.4870431423187203</v>
       </c>
       <c r="I115">
+        <f t="shared" si="1"/>
+        <v>9.2076253890991122</v>
+      </c>
+      <c r="J115">
         <v>0.510272301777832</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>72.452779967276598</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>467</v>
       </c>
@@ -5952,39 +6408,43 @@
         <v>16.4281070232391</v>
       </c>
       <c r="I116">
+        <f t="shared" si="1"/>
+        <v>18.136790990829429</v>
+      </c>
+      <c r="J116">
         <v>0.451801001804922</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>91.378547125736802</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E117">
         <f>AVERAGE(E2:E116)</f>
         <v>0.15352054886195937</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117:J117" si="0">AVERAGE(F2:F116)</f>
+        <f t="shared" ref="F117:K117" si="2">AVERAGE(F2:F116)</f>
         <v>0.26438686329385502</v>
       </c>
       <c r="G117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5670127993044614</v>
       </c>
       <c r="H117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2173881758814211</v>
       </c>
-      <c r="I117">
-        <f t="shared" si="0"/>
+      <c r="J117">
+        <f t="shared" si="2"/>
         <v>0.47610721146442031</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="0"/>
+      <c r="K117">
+        <f t="shared" si="2"/>
         <v>72.983502903332393</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
         <v>471</v>
       </c>

--- a/experiments/roberta/results/five_answer_best_context_concat.xlsx
+++ b/experiments/roberta/results/five_answer_best_context_concat.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iLFQA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FD8F3-B403-4AC0-BC7A-BA0DB193D13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E68577-85E6-4143-BD9B-DEC5A45174CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="averages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="472">
   <si>
     <t>Question</t>
   </si>
@@ -1891,7 +1892,7 @@
     <t>There are more baby boys than baby girls in the U.S. In fact, it has long been observed that the proportion of boys among newborns is slightly more than 1/2. The reason for this is not thoroughly understood, and scientists are still working on it. The reason now is to compare the number of female counts and the corresponding array of male counts, and then simply divide one array by the other. To do this in one step, we can use column to extract the array of females and extract the opposite array from the other. Elementwisewise, this is called Elementwise skewing. For example, I can see that male infants outnumbered female infants. As before, we can convert counts to percents out of the total numbers of infants.</t>
   </si>
   <si>
-    <t>total average time:</t>
+    <t>total_time</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D116" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView topLeftCell="D116" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,43 +6419,83 @@
         <v>91.378547125736802</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E117">
-        <f>AVERAGE(E2:E116)</f>
-        <v>0.15352054886195937</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ref="F117:K117" si="2">AVERAGE(F2:F116)</f>
-        <v>0.26438686329385502</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="2"/>
-        <v>1.5670127993044614</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="2"/>
-        <v>8.2173881758814211</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="2"/>
-        <v>0.47610721146442031</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="2"/>
-        <v>72.983502903332393</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E119">
-        <f>SUM(E117:H117)</f>
-        <v>10.202308387341697</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBA374-914A-4B51-9B32-DC8A83EB6347}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE(Sheet1!E2:E116)</f>
+        <v>0.15352054886195937</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Sheet1!F2:F116)</f>
+        <v>0.26438686329385502</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Sheet1!G2:G116)</f>
+        <v>1.5670127993044614</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(Sheet1!H2:H116)</f>
+        <v>8.2173881758814211</v>
+      </c>
+      <c r="E2">
+        <f>SUM(A2:D2)</f>
+        <v>10.202308387341697</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Sheet1!J2:J116)</f>
+        <v>0.47610721146442031</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Sheet1!K2:K116)</f>
+        <v>72.983502903332393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>